--- a/SHAP/keep_ozone_VDZP_shap.xlsx
+++ b/SHAP/keep_ozone_VDZP_shap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>shap</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,7 +460,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.446008838806004e-05</v>
+        <v>8.943528043591508e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$\mathbf{b}$</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -468,7 +478,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0003004982089632196</v>
+        <v>0.0004390300724731704</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$\langle pp \vert \vert qq \rangle$</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -481,7 +496,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0006609907071190491</v>
+        <v>6.731817323400504e-05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -494,7 +514,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.786866389563089e-05</v>
+        <v>8.123267920030414e-05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -507,7 +532,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.001520032744600609</v>
+        <v>0.0001602502889865089</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -520,7 +550,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0001434772756043617</v>
+        <v>0.0001656290100168945</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -533,7 +568,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0001030690905397187</v>
+        <v>0.0001471514837970222</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -546,7 +586,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003587082903126667</v>
+        <v>0.0001438513075941875</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -559,7 +604,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002218261083203657</v>
+        <v>0.003041246658121699</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -572,46 +622,66 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.002028830604207525</v>
+        <v>9.364611295209535e-05</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eijab_1</t>
+          <t>eijab_2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.084366691322701e-05</v>
+        <v>1.626226690895013e-05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eijab_2</t>
+          <t>eijab_3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.009228194261817e-05</v>
+        <v>2.192378398809872e-05</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eijab_3</t>
+          <t>eijab_4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.124079693584184e-05</v>
+        <v>1.793164792377623e-05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -624,7 +694,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0007113401438249705</v>
+        <v>7.753486198487605e-05</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -637,7 +712,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001283928732430399</v>
+        <v>8.887849039566642e-05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -650,7 +730,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0007539056892726494</v>
+        <v>0.0001935646786050618</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -663,7 +748,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001608051655678605</v>
+        <v>9.128295436749971e-05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -676,7 +766,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.092456701815948e-05</v>
+        <v>0.001615012776455012</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -689,7 +784,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.899037080990218e-05</v>
+        <v>0.0002321659468906043</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -702,7 +802,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001753336190341629</v>
+        <v>0.0001756649717269622</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -715,7 +820,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001320835026979918</v>
+        <v>0.0003483228146047222</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -728,7 +838,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0002321866588586866</v>
+        <v>6.21358617630117e-05</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -741,397 +856,480 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.428996261525336e-05</v>
+        <v>1.106217610872746e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fs3</t>
+          <t>occr1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.000315967706256971</v>
+        <v>6.6433079736839e-05</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fs4</t>
+          <t>occr2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.082340565924366e-05</v>
+        <v>3.687779246704264e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occr1</t>
+          <t>occr4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.88127856316319e-05</v>
+        <v>4.369366155118692e-05</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>occr2</t>
+          <t>SCFFr1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.527338982407635e-05</v>
+        <v>0.0001109908010416703</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>occr3</t>
+          <t>SCFFr2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.242189005936024e-05</v>
+        <v>0.0002771385770950991</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>occr4</t>
+          <t>SCFFr3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.77231041095318e-05</v>
+        <v>5.507133313061352e-05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>occs4</t>
+          <t>SCFFr4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.871749750268323e-05</v>
+        <v>4.177197385700876e-05</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SCFFr1</t>
+          <t>SCFFs1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001053043990343931</v>
+        <v>2.694116138362471e-05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SCFFr2</t>
+          <t>SCFFs2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.334434009395066e-05</v>
+        <v>4.164160574885197e-05</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SCFFr3</t>
+          <t>SCFFs3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.03254224676696e-05</v>
+        <v>5.302720329996195e-05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SCFFr4</t>
+          <t>SCFFs4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.514935434079139e-05</v>
+        <v>3.854034152464111e-05</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SCFFs1</t>
+          <t>hrr1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.665896388180593e-05</v>
+        <v>7.587186744523922e-05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SCFFs2</t>
+          <t>hrr2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.26700064345883e-05</v>
+        <v>3.655237044401989e-05</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SCFFs3</t>
+          <t>hrr3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0001089637144231826</v>
+        <v>0.0001062744063263749</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SCFFs4</t>
+          <t>hrr4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0001055998038046754</v>
+        <v>7.542162687745788e-05</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hrr1</t>
+          <t>hss1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.423945797434934e-05</v>
+        <v>6.136511770506882e-05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hrr2</t>
+          <t>hss2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.003060155157094195</v>
+        <v>9.783626529416461e-05</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hrr3</t>
+          <t>hss3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.035059034140307e-05</v>
+        <v>2.475638289042079e-05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hrr4</t>
+          <t>hss4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0001244825208997473</v>
+        <v>4.186632922329535e-05</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hss1</t>
+          <t>hpp</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.819816408603125e-05</v>
+        <v>0.0008505911323295213</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$h_{pp}$</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hss2</t>
+          <t>Fp</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.949074270516041e-05</v>
+        <v>0.001759077041079878</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$F_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>hss3</t>
+          <t>Fq</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.708164919376823e-05</v>
+        <v>0.0005954976112079823</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$F_{q}$</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>hss4</t>
+          <t>occp</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7.225658974148784e-05</v>
+        <v>1.795169140818669e-05</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$\eta_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hpp</t>
+          <t>occq</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0001520151924105268</v>
+        <v>4.166667602412304e-05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$\eta_{q}$</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fp</t>
+          <t>SCFFp</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.457882386343393e-05</v>
+        <v>7.323152118066662e-05</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$F_{p}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fq</t>
+          <t>SCFFq</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0002051624669284423</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>occp</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1.938451959302239e-05</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>occq</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0004724517877536746</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>SCFFp</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>3.081780118192053e-05</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SCFFq</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1.94308260379751e-05</v>
+        <v>0.00103208798389803</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$F_{q}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
